--- a/women_diaries/Diary 7 (Igor).xlsx
+++ b/women_diaries/Diary 7 (Igor).xlsx
@@ -100,9 +100,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After all these setbacks I started to install the necessary dependencies, however, I’m in the university now, and I’m not able to download the dependencies using its network, so I am not able to install LibreOffice at the moment too.</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Today, after reinstalling the entire operating system (now using the latest version of Xubuntu), I reinstalled all the dependencies, and started the download of the source code. However, as people warned me, there is a long wait until the whole process is completed, I started 4 hours ago and at the moment the progress is still 51%.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t xml:space="preserve">After a few hours, the process was finished, however, when I started the setup process, I couldn’t continue because there were dependencies that had not been installed. I installed the missing dependencies, and I resumed the compilation. During the process (around 4 AM) I realize that it is still far from over, so I leaved the notebook on, and went to sleep. </t>
@@ -255,10 +255,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -431,11 +431,11 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="V4" s="13"/>
+      <c r="V4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -496,8 +496,8 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="V8" s="13" t="s">
-        <v>28</v>
+      <c r="V8" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -515,8 +515,8 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="V9" s="13" t="s">
-        <v>28</v>
+      <c r="V9" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -550,14 +550,14 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="S11" s="13" t="s">
-        <v>28</v>
+      <c r="S11" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>28</v>
+      <c r="U11" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="V11" s="13" t="s">
-        <v>28</v>
+      <c r="V11" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -575,8 +575,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="U12" s="13" t="s">
-        <v>28</v>
+      <c r="U12" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -14567,14 +14567,14 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13" t="s">
-        <v>28</v>
+      <c r="U4" s="13"/>
+      <c r="V4" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -14590,7 +14590,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -14622,14 +14622,14 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -14677,7 +14677,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -14688,7 +14688,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="V11" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -14698,7 +14698,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -14708,11 +14708,11 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="U12" s="13" t="s">
-        <v>28</v>
+      <c r="U12" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>28</v>
+      <c r="V12" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -14722,7 +14722,7 @@
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -14730,15 +14730,15 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="U13" s="13" t="s">
-        <v>28</v>
+      <c r="U13" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="V13" s="13" t="s">
-        <v>28</v>
+      <c r="V13" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -14755,13 +14755,13 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L14" s="11"/>
-      <c r="S14" s="13" t="s">
-        <v>28</v>
+      <c r="S14" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="U14" s="13"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
@@ -14784,18 +14784,18 @@
         <v>40</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -28814,13 +28814,13 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -28836,7 +28836,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -28852,7 +28852,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -28868,7 +28868,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -28933,7 +28933,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -28954,10 +28954,10 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -28980,10 +28980,10 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="12" t="s">
         <v>27</v>
       </c>
     </row>
